--- a/groups/23-24-Udmurtia/tasks_results/24.02.14.xlsx
+++ b/groups/23-24-Udmurtia/tasks_results/24.02.14.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>140</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
   </si>
   <si>
     <t>142</t>
@@ -611,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -655,6 +658,9 @@
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
@@ -704,49 +710,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="G17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
